--- a/3_data_analysis/plasma_metabolomics/data_preparation/metabolite/variable_info_metabolome_HMDB_class.xlsx
+++ b/3_data_analysis/plasma_metabolomics/data_preparation/metabolite/variable_info_metabolome_HMDB_class.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260"/>
+    <workbookView windowWidth="30860" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="variable_info_metabolome" sheetId="1" r:id="rId1"/>
@@ -15896,8 +15896,8 @@
   <sheetPr/>
   <dimension ref="A1:AE815"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="A577" sqref="A577"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="V198" workbookViewId="0">
+      <selection activeCell="G232" sqref="G232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
@@ -37471,7 +37471,7 @@
         <v>0</v>
       </c>
       <c r="AE227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:31">
@@ -39656,7 +39656,7 @@
         <v>0</v>
       </c>
       <c r="AE250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:31">
@@ -57611,7 +57611,7 @@
         <v>0</v>
       </c>
       <c r="AE439" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:31">
@@ -72008,7 +72008,6 @@
       <c r="P591">
         <v>0.971285285</v>
       </c>
-      <c r="Q591"/>
       <c r="R591">
         <v>0.92462223</v>
       </c>
